--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/growth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D1AF9-2E96-714F-B899-FA07C08E5B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC55B71-4727-DB4D-B77D-500CFF5522F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48360" yWindow="-380" windowWidth="27240" windowHeight="16440" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="5160" yWindow="500" windowWidth="23520" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="10">
   <si>
     <t>control</t>
   </si>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>2.2999999999999998</v>
@@ -494,7 +494,2008 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20241204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20241204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20241204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2.72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20241204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4.45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20241204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2.75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20241204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3.64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20241204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>3.57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20241204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2.88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20241204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>3.11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20241204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3.74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20241204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>4.24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20241204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>3.49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20241204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>3.29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20241204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>3.48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20241204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2.39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20241204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20241204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>3.15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20241204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>3.59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20241204</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>3.42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20241204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2.9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20241204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3.16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20241204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3.88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20241204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2.96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20241204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3.12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20241204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20241204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20241204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3.54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20241204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>3.55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20241204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>2.76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20241204</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>3.79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20241204</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>3.55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20241204</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>3.89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20241204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>2.65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20241204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>3.56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20241204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>4.04</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20241204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>3.61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20241204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>3.16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20241204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>3.16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20241204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>3.84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20241204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>3.44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20241204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>2.79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20241204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>3.18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20241204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>2.76</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20241204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>3.42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20241204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>2.39</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20241204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>2.81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20241204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>2.82</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20241204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>3.04</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20241204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>2.73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20241204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>3.83</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20241204</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>2.89</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20241204</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>2.92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20241204</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>2.38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20241204</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>2.61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20241204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>3.27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20241204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>3.67</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20241204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>4.08</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20241204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>2.9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20241204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>3.4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20241204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>3.2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20241204</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20241204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>3.1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20241204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>2.4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20241204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>2.5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20241204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>3.2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20241204</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>3.6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20241204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>3.8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20241204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>3.5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20241204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>3.6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20241204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>3.5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20241204</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>2.6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20241204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20241204</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>3.4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20241204</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>3.7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20241204</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>4.5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20241204</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>3.1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20241204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>3.5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20241204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>3.3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20241204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>3.8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20241204</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20241204</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>3.2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20241204</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20241204</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>3.08</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20241204</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>2.34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20241204</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>3.36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20241204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>2.42</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20241204</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>2.57</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20241204</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>3.52</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20241204</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>3.16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20241204</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>2.97</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20241204</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>2.82</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20241204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>2.73</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20241204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>3.3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20241204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>2.64</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20241204</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>2.71</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20241204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>3.06</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20241204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>2.57</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20241204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <v>2.73</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20241204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>2.82</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20241204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>3.76</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC55B71-4727-DB4D-B77D-500CFF5522F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA09FD6-7B81-6C4C-AC9C-3E78654B97F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="500" windowWidth="23520" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA09FD6-7B81-6C4C-AC9C-3E78654B97F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212F71E-8B2A-024D-A2D1-00A5525BBFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="500" windowWidth="23520" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="10000" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="11">
   <si>
     <t>control</t>
   </si>
@@ -66,6 +65,9 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>20241204_treated_size.jpeg</t>
   </si>
 </sst>
 </file>
@@ -437,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -508,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2.5499999999999998</v>
+        <v>4.41</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -528,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -548,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -568,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>4.45</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -588,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>2.75</v>
+        <v>3.52</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -608,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>3.64</v>
+        <v>3.37</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -628,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>3.57</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -648,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -668,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>3.11</v>
+        <v>2.57</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -688,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>3.74</v>
+        <v>2.76</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -708,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>4.24</v>
+        <v>3.63</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -728,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -748,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>3.29</v>
+        <v>2.21</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -768,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>3.48</v>
+        <v>2.39</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -788,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>2.39</v>
+        <v>2.9</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -808,7 +810,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>2.5099999999999998</v>
+        <v>2.81</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -828,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>3.15</v>
+        <v>3.44</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -848,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>3.59</v>
+        <v>3.53</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -868,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>3.42</v>
+        <v>3.06</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -888,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2.9</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -908,7 +910,7 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3.16</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -928,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -948,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2.96</v>
+        <v>3.37</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -968,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -988,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="E27">
-        <v>2.4300000000000002</v>
+        <v>3.52</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1008,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="E28">
-        <v>2.0499999999999998</v>
+        <v>2.76</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1028,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="E29">
-        <v>3.54</v>
+        <v>4.12</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1048,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="E30">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1068,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>2.76</v>
+        <v>3.57</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1088,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <v>3.79</v>
+        <v>3.46</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1108,7 +1110,7 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1128,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1148,7 +1150,7 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1168,7 +1170,7 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>3.56</v>
+        <v>2.71</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1188,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1208,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>3.61</v>
+        <v>4.12</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1228,7 +1230,7 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>3.16</v>
+        <v>3.53</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1248,7 +1250,7 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <v>3.16</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1268,7 +1270,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>3.84</v>
+        <v>3.83</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1288,7 +1290,7 @@
         <v>40</v>
       </c>
       <c r="E42">
-        <v>3.44</v>
+        <v>2.81</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1308,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>2.79</v>
+        <v>3.79</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1328,7 +1330,7 @@
         <v>42</v>
       </c>
       <c r="E44">
-        <v>3.18</v>
+        <v>4.46</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1348,7 +1350,7 @@
         <v>43</v>
       </c>
       <c r="E45">
-        <v>2.76</v>
+        <v>2.19</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1368,7 +1370,7 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <v>3.42</v>
+        <v>3.01</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1388,7 +1390,7 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <v>2.39</v>
+        <v>2.82</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1408,7 +1410,7 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <v>2.81</v>
+        <v>3.24</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1428,7 +1430,7 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1448,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1468,7 +1470,7 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <v>2.73</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1488,7 +1490,7 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <v>3.83</v>
+        <v>2.86</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1508,7 +1510,7 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <v>2.89</v>
+        <v>2.42</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1528,7 +1530,7 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1548,7 +1550,7 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <v>2.38</v>
+        <v>2.71</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1568,7 +1570,7 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <v>2.61</v>
+        <v>3.08</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1588,7 +1590,7 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1608,7 +1610,7 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1628,7 +1630,7 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <v>4.08</v>
+        <v>2.86</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1648,7 +1650,7 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <v>2.9</v>
+        <v>3.36</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -1668,7 +1670,7 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -1688,7 +1690,7 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -1708,7 +1710,7 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>4.4000000000000004</v>
+        <v>3.07</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -1728,7 +1730,7 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -1748,7 +1750,7 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>2.4</v>
+        <v>3.06</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -1768,7 +1770,7 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>2.5</v>
+        <v>3.16</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -1788,7 +1790,7 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -1808,7 +1810,7 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>3.6</v>
+        <v>3.91</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -1828,7 +1830,7 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -1848,7 +1850,7 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -1868,7 +1870,7 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>3.6</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -1888,7 +1890,7 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -1908,7 +1910,7 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>2.6</v>
+        <v>2.81</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -1928,7 +1930,7 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>2.2999999999999998</v>
+        <v>2.85</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -1948,7 +1950,7 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -1968,7 +1970,7 @@
         <v>74</v>
       </c>
       <c r="E76">
-        <v>3.7</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -1988,7 +1990,7 @@
         <v>75</v>
       </c>
       <c r="E77">
-        <v>4.5</v>
+        <v>2.42</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -2008,7 +2010,7 @@
         <v>76</v>
       </c>
       <c r="E78">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -2028,7 +2030,7 @@
         <v>77</v>
       </c>
       <c r="E79">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -2048,7 +2050,7 @@
         <v>78</v>
       </c>
       <c r="E80">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
@@ -2068,7 +2070,7 @@
         <v>79</v>
       </c>
       <c r="E81">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -2088,7 +2090,7 @@
         <v>80</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -2108,7 +2110,7 @@
         <v>81</v>
       </c>
       <c r="E83">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -2128,7 +2130,7 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
@@ -2148,7 +2150,7 @@
         <v>83</v>
       </c>
       <c r="E85">
-        <v>3.08</v>
+        <v>2.13</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -2168,7 +2170,7 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
@@ -2188,7 +2190,7 @@
         <v>85</v>
       </c>
       <c r="E87">
-        <v>3.36</v>
+        <v>2.84</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -2208,7 +2210,7 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <v>2.42</v>
+        <v>3.01</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
@@ -2228,7 +2230,7 @@
         <v>87</v>
       </c>
       <c r="E89">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -2248,7 +2250,7 @@
         <v>88</v>
       </c>
       <c r="E90">
-        <v>3.52</v>
+        <v>3.03</v>
       </c>
       <c r="F90" t="s">
         <v>7</v>
@@ -2268,7 +2270,7 @@
         <v>89</v>
       </c>
       <c r="E91">
-        <v>3.16</v>
+        <v>3.72</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -2288,7 +2290,7 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <v>2.97</v>
+        <v>3.56</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -2308,7 +2310,7 @@
         <v>91</v>
       </c>
       <c r="E93">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -2328,7 +2330,7 @@
         <v>92</v>
       </c>
       <c r="E94">
-        <v>2.73</v>
+        <v>3.07</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
@@ -2348,7 +2350,7 @@
         <v>93</v>
       </c>
       <c r="E95">
-        <v>3.3</v>
+        <v>2.39</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
@@ -2368,7 +2370,7 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -2388,7 +2390,7 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -2408,7 +2410,7 @@
         <v>96</v>
       </c>
       <c r="E98">
-        <v>3.06</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -2428,7 +2430,7 @@
         <v>97</v>
       </c>
       <c r="E99">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="F99" t="s">
         <v>7</v>
@@ -2448,7 +2450,7 @@
         <v>98</v>
       </c>
       <c r="E100">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
@@ -2468,7 +2470,7 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
@@ -2488,10 +2490,2010 @@
         <v>100</v>
       </c>
       <c r="E102">
+        <v>1.84</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20241204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>3.06</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20241205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20241206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>2.04</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20241207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>2.52</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20241208</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20241209</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>2.89</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20241210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>3.6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20241211</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>3.2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20241212</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>2.88</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20241213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>2.35</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20241214</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>2.58</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20241215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>2.76</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20241216</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>13</v>
+      </c>
+      <c r="E115">
+        <v>2.31</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20241217</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>14</v>
+      </c>
+      <c r="E116">
+        <v>2.52</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20241218</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>2.44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20241219</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>3.39</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20241220</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>2.57</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20241221</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>3.34</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20241222</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>3.81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20241223</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>2.52</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20241224</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>2.88</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20241225</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>22</v>
+      </c>
+      <c r="E124">
+        <v>2.37</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20241226</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>23</v>
+      </c>
+      <c r="E125">
+        <v>2.88</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20241227</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>24</v>
+      </c>
+      <c r="E126">
+        <v>3.22</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20241228</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>25</v>
+      </c>
+      <c r="E127">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20241229</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>26</v>
+      </c>
+      <c r="E128">
+        <v>2.59</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20241230</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>27</v>
+      </c>
+      <c r="E129">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20241231</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>28</v>
+      </c>
+      <c r="E130">
+        <v>3.73</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20241232</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <v>3.62</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20241233</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>30</v>
+      </c>
+      <c r="E132">
+        <v>3.06</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20241234</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>31</v>
+      </c>
+      <c r="E133">
+        <v>2.9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20241235</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>32</v>
+      </c>
+      <c r="E134">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20241236</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>33</v>
+      </c>
+      <c r="E135">
+        <v>2.23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20241237</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>34</v>
+      </c>
+      <c r="E136">
+        <v>2.68</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20241238</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>35</v>
+      </c>
+      <c r="E137">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20241239</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>36</v>
+      </c>
+      <c r="E138">
+        <v>2.14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20241240</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>37</v>
+      </c>
+      <c r="E139">
+        <v>2.27</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20241241</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>38</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20241242</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>39</v>
+      </c>
+      <c r="E141">
+        <v>2.8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20241243</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>40</v>
+      </c>
+      <c r="E142">
+        <v>2.81</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20241244</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>41</v>
+      </c>
+      <c r="E143">
+        <v>2.76</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20241245</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>42</v>
+      </c>
+      <c r="E144">
+        <v>2.65</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20241246</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>43</v>
+      </c>
+      <c r="E145">
+        <v>3.6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20241247</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>44</v>
+      </c>
+      <c r="E146">
+        <v>3.46</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20241248</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>45</v>
+      </c>
+      <c r="E147">
+        <v>3.97</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20241249</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>46</v>
+      </c>
+      <c r="E148">
+        <v>2.72</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20241250</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>47</v>
+      </c>
+      <c r="E149">
+        <v>1.92</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20241251</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>48</v>
+      </c>
+      <c r="E150">
+        <v>4.08</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20241252</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>49</v>
+      </c>
+      <c r="E151">
+        <v>2.54</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20241253</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>50</v>
+      </c>
+      <c r="E152">
         <v>3.76</v>
       </c>
-      <c r="F102" t="s">
-        <v>7</v>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20241254</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>51</v>
+      </c>
+      <c r="E153">
+        <v>2.68</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20241255</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>52</v>
+      </c>
+      <c r="E154">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20241256</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>53</v>
+      </c>
+      <c r="E155">
+        <v>3.26</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20241257</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>54</v>
+      </c>
+      <c r="E156">
+        <v>2.31</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>20241258</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>55</v>
+      </c>
+      <c r="E157">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>20241259</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>56</v>
+      </c>
+      <c r="E158">
+        <v>2.52</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>20241260</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>57</v>
+      </c>
+      <c r="E159">
+        <v>3.39</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20241261</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>58</v>
+      </c>
+      <c r="E160">
+        <v>3.02</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20241262</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>59</v>
+      </c>
+      <c r="E161">
+        <v>4.41</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20241263</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>60</v>
+      </c>
+      <c r="E162">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20241264</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>61</v>
+      </c>
+      <c r="E163">
+        <v>3.49</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20241265</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>62</v>
+      </c>
+      <c r="E164">
+        <v>3.75</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20241266</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>63</v>
+      </c>
+      <c r="E165">
+        <v>2.31</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20241267</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>64</v>
+      </c>
+      <c r="E166">
+        <v>3.63</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20241268</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>65</v>
+      </c>
+      <c r="E167">
+        <v>3.09</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20241269</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>66</v>
+      </c>
+      <c r="E168">
+        <v>2.72</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20241270</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>67</v>
+      </c>
+      <c r="E169">
+        <v>2.54</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20241271</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>68</v>
+      </c>
+      <c r="E170">
+        <v>2.76</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20241272</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>69</v>
+      </c>
+      <c r="E171">
+        <v>2.5</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20241273</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>70</v>
+      </c>
+      <c r="E172">
+        <v>2.88</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>20241274</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>71</v>
+      </c>
+      <c r="E173">
+        <v>1.37</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>20241275</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>72</v>
+      </c>
+      <c r="E174">
+        <v>2.52</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>20241276</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>73</v>
+      </c>
+      <c r="E175">
+        <v>3.26</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20241277</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>74</v>
+      </c>
+      <c r="E176">
+        <v>2.9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>20241278</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>75</v>
+      </c>
+      <c r="E177">
+        <v>3.33</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>20241279</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>76</v>
+      </c>
+      <c r="E178">
+        <v>3.26</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>20241280</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>77</v>
+      </c>
+      <c r="E179">
+        <v>3.07</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>20241281</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>78</v>
+      </c>
+      <c r="E180">
+        <v>3.43</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>20241282</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>79</v>
+      </c>
+      <c r="E181">
+        <v>3.39</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>20241283</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>80</v>
+      </c>
+      <c r="E182">
+        <v>3.43</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>20241284</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>81</v>
+      </c>
+      <c r="E183">
+        <v>2.9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>20241285</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>82</v>
+      </c>
+      <c r="E184">
+        <v>2.71</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>20241286</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>83</v>
+      </c>
+      <c r="E185">
+        <v>3.86</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>20241287</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>84</v>
+      </c>
+      <c r="E186">
+        <v>2.76</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>20241288</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>85</v>
+      </c>
+      <c r="E187">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>20241289</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>86</v>
+      </c>
+      <c r="E188">
+        <v>3.15</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>20241290</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>87</v>
+      </c>
+      <c r="E189">
+        <v>2.27</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>20241291</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>88</v>
+      </c>
+      <c r="E190">
+        <v>2.82</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>20241292</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>89</v>
+      </c>
+      <c r="E191">
+        <v>3.93</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>20241293</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>90</v>
+      </c>
+      <c r="E192">
+        <v>2.04</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>20241294</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>91</v>
+      </c>
+      <c r="E193">
+        <v>1.67</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>20241295</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>92</v>
+      </c>
+      <c r="E194">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>20241296</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>93</v>
+      </c>
+      <c r="E195">
+        <v>2.5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>20241297</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>94</v>
+      </c>
+      <c r="E196">
+        <v>2.96</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>20241298</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>95</v>
+      </c>
+      <c r="E197">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>20241299</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>96</v>
+      </c>
+      <c r="E198">
+        <v>2.76</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>20241300</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>97</v>
+      </c>
+      <c r="E199">
+        <v>2.72</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>20241301</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>98</v>
+      </c>
+      <c r="E200">
+        <v>3.05</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>20241302</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>99</v>
+      </c>
+      <c r="E201">
+        <v>3.12</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>20241303</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>100</v>
+      </c>
+      <c r="E202">
+        <v>3.05</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212F71E-8B2A-024D-A2D1-00A5525BBFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6873D-D5C1-CF4E-883E-DCB76A423C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="10000" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="12">
   <si>
     <t>control</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>20241204_treated_size.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250107_control1_size.jpeg </t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4496,6 +4499,2006 @@
         <v>10</v>
       </c>
     </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>20250107</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>3.62</v>
+      </c>
+      <c r="F203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>20250107</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>4.63</v>
+      </c>
+      <c r="F204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>20250107</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205">
+        <v>3.55</v>
+      </c>
+      <c r="F205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>20250107</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>4</v>
+      </c>
+      <c r="E206">
+        <v>5.35</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20250107</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="E207">
+        <v>4.16</v>
+      </c>
+      <c r="F207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>20250107</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <v>4.41</v>
+      </c>
+      <c r="F208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>20250107</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>3.59</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20250107</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>8</v>
+      </c>
+      <c r="E210">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>20250107</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+      <c r="E211">
+        <v>3.28</v>
+      </c>
+      <c r="F211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>20250107</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>4</v>
+      </c>
+      <c r="F212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20250107</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>11</v>
+      </c>
+      <c r="E213">
+        <v>4.68</v>
+      </c>
+      <c r="F213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>20250107</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>12</v>
+      </c>
+      <c r="E214">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20250107</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>13</v>
+      </c>
+      <c r="E215">
+        <v>5.33</v>
+      </c>
+      <c r="F215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>20250107</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>14</v>
+      </c>
+      <c r="E216">
+        <v>4.5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>20250107</v>
+      </c>
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>15</v>
+      </c>
+      <c r="E217">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>20250107</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>16</v>
+      </c>
+      <c r="E218">
+        <v>3.43</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>20250107</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>17</v>
+      </c>
+      <c r="E219">
+        <v>4.16</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>20250107</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>18</v>
+      </c>
+      <c r="E220">
+        <v>4.34</v>
+      </c>
+      <c r="F220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>20250107</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>19</v>
+      </c>
+      <c r="E221">
+        <v>4.03</v>
+      </c>
+      <c r="F221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>20250107</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>20</v>
+      </c>
+      <c r="E222">
+        <v>3.08</v>
+      </c>
+      <c r="F222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>20250107</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>21</v>
+      </c>
+      <c r="E223">
+        <v>4.49</v>
+      </c>
+      <c r="F223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>20250107</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>22</v>
+      </c>
+      <c r="E224">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>20250107</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>23</v>
+      </c>
+      <c r="E225">
+        <v>3.43</v>
+      </c>
+      <c r="F225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>20250107</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>24</v>
+      </c>
+      <c r="E226">
+        <v>3.94</v>
+      </c>
+      <c r="F226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>20250107</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>25</v>
+      </c>
+      <c r="E227">
+        <v>3.92</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>20250107</v>
+      </c>
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>26</v>
+      </c>
+      <c r="E228">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>20250107</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>27</v>
+      </c>
+      <c r="E229">
+        <v>4.16</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>20250107</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>28</v>
+      </c>
+      <c r="E230">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>20250107</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>29</v>
+      </c>
+      <c r="E231">
+        <v>3.77</v>
+      </c>
+      <c r="F231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>20250107</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>30</v>
+      </c>
+      <c r="E232">
+        <v>2.73</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>20250107</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>31</v>
+      </c>
+      <c r="E233">
+        <v>4.41</v>
+      </c>
+      <c r="F233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>20250107</v>
+      </c>
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>32</v>
+      </c>
+      <c r="E234">
+        <v>4.3</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>20250107</v>
+      </c>
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>33</v>
+      </c>
+      <c r="E235">
+        <v>4.47</v>
+      </c>
+      <c r="F235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>20250107</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>34</v>
+      </c>
+      <c r="E236">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>20250107</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>35</v>
+      </c>
+      <c r="E237">
+        <v>2.8</v>
+      </c>
+      <c r="F237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>20250107</v>
+      </c>
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>36</v>
+      </c>
+      <c r="E238">
+        <v>3.72</v>
+      </c>
+      <c r="F238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>20250107</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>37</v>
+      </c>
+      <c r="E239">
+        <v>3.43</v>
+      </c>
+      <c r="F239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>20250107</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>38</v>
+      </c>
+      <c r="E240">
+        <v>3.44</v>
+      </c>
+      <c r="F240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>20250107</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>39</v>
+      </c>
+      <c r="E241">
+        <v>4.72</v>
+      </c>
+      <c r="F241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>20250107</v>
+      </c>
+      <c r="B242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>40</v>
+      </c>
+      <c r="E242">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>20250107</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>41</v>
+      </c>
+      <c r="E243">
+        <v>4.26</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>20250107</v>
+      </c>
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>42</v>
+      </c>
+      <c r="E244">
+        <v>4.08</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>20250107</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>43</v>
+      </c>
+      <c r="E245">
+        <v>4.22</v>
+      </c>
+      <c r="F245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>20250107</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>44</v>
+      </c>
+      <c r="E246">
+        <v>4.66</v>
+      </c>
+      <c r="F246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>20250107</v>
+      </c>
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>45</v>
+      </c>
+      <c r="E247">
+        <v>3.41</v>
+      </c>
+      <c r="F247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>20250107</v>
+      </c>
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>46</v>
+      </c>
+      <c r="E248">
+        <v>3.81</v>
+      </c>
+      <c r="F248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>20250107</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>47</v>
+      </c>
+      <c r="E249">
+        <v>3.87</v>
+      </c>
+      <c r="F249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>20250107</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>48</v>
+      </c>
+      <c r="E250">
+        <v>3.08</v>
+      </c>
+      <c r="F250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>20250107</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>49</v>
+      </c>
+      <c r="E251">
+        <v>3.34</v>
+      </c>
+      <c r="F251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>20250107</v>
+      </c>
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>50</v>
+      </c>
+      <c r="E252">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F252" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>20250107</v>
+      </c>
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>51</v>
+      </c>
+      <c r="E253">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>20250107</v>
+      </c>
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>52</v>
+      </c>
+      <c r="E254">
+        <v>4.42</v>
+      </c>
+      <c r="F254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>20250107</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>53</v>
+      </c>
+      <c r="E255">
+        <v>3.92</v>
+      </c>
+      <c r="F255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>20250107</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>54</v>
+      </c>
+      <c r="E256">
+        <v>3.93</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>20250107</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>55</v>
+      </c>
+      <c r="E257">
+        <v>4.32</v>
+      </c>
+      <c r="F257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>20250107</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>56</v>
+      </c>
+      <c r="E258">
+        <v>3.78</v>
+      </c>
+      <c r="F258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>20250107</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>57</v>
+      </c>
+      <c r="E259">
+        <v>3.44</v>
+      </c>
+      <c r="F259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>20250107</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>58</v>
+      </c>
+      <c r="E260">
+        <v>4.3</v>
+      </c>
+      <c r="F260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>20250107</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>59</v>
+      </c>
+      <c r="E261">
+        <v>5.27</v>
+      </c>
+      <c r="F261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>20250107</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>60</v>
+      </c>
+      <c r="E262">
+        <v>3.77</v>
+      </c>
+      <c r="F262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>20250107</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>61</v>
+      </c>
+      <c r="E263">
+        <v>3.71</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>20250107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>62</v>
+      </c>
+      <c r="E264">
+        <v>3.58</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>20250107</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>63</v>
+      </c>
+      <c r="E265">
+        <v>3.35</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20250107</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>64</v>
+      </c>
+      <c r="E266">
+        <v>5.43</v>
+      </c>
+      <c r="F266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>20250107</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>65</v>
+      </c>
+      <c r="E267">
+        <v>4.5</v>
+      </c>
+      <c r="F267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>20250107</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>66</v>
+      </c>
+      <c r="E268">
+        <v>3.98</v>
+      </c>
+      <c r="F268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>20250107</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>67</v>
+      </c>
+      <c r="E269">
+        <v>4.08</v>
+      </c>
+      <c r="F269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>20250107</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>68</v>
+      </c>
+      <c r="E270">
+        <v>3.8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20250107</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>69</v>
+      </c>
+      <c r="E271">
+        <v>3.07</v>
+      </c>
+      <c r="F271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>20250107</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>70</v>
+      </c>
+      <c r="E272">
+        <v>4.26</v>
+      </c>
+      <c r="F272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20250107</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>71</v>
+      </c>
+      <c r="E273">
+        <v>4.26</v>
+      </c>
+      <c r="F273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20250107</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>72</v>
+      </c>
+      <c r="E274">
+        <v>2.81</v>
+      </c>
+      <c r="F274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20250107</v>
+      </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>73</v>
+      </c>
+      <c r="E275">
+        <v>2.09</v>
+      </c>
+      <c r="F275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20250107</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>74</v>
+      </c>
+      <c r="E276">
+        <v>2.72</v>
+      </c>
+      <c r="F276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20250107</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>75</v>
+      </c>
+      <c r="E277">
+        <v>3.18</v>
+      </c>
+      <c r="F277" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20250107</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>76</v>
+      </c>
+      <c r="E278">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20250107</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>77</v>
+      </c>
+      <c r="E279">
+        <v>3.71</v>
+      </c>
+      <c r="F279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20250107</v>
+      </c>
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>78</v>
+      </c>
+      <c r="E280">
+        <v>3.89</v>
+      </c>
+      <c r="F280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20250107</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>79</v>
+      </c>
+      <c r="E281">
+        <v>3.8</v>
+      </c>
+      <c r="F281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20250107</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>80</v>
+      </c>
+      <c r="E282">
+        <v>2.93</v>
+      </c>
+      <c r="F282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20250107</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>81</v>
+      </c>
+      <c r="E283">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>20250107</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>82</v>
+      </c>
+      <c r="E284">
+        <v>3.95</v>
+      </c>
+      <c r="F284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>20250107</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>83</v>
+      </c>
+      <c r="E285">
+        <v>3.02</v>
+      </c>
+      <c r="F285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>20250107</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>84</v>
+      </c>
+      <c r="E286">
+        <v>3.78</v>
+      </c>
+      <c r="F286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>20250107</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>85</v>
+      </c>
+      <c r="E287">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>20250107</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>86</v>
+      </c>
+      <c r="E288">
+        <v>2.7</v>
+      </c>
+      <c r="F288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>20250107</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>87</v>
+      </c>
+      <c r="E289">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>20250107</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>88</v>
+      </c>
+      <c r="E290">
+        <v>3.31</v>
+      </c>
+      <c r="F290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>20250107</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>89</v>
+      </c>
+      <c r="E291">
+        <v>4.16</v>
+      </c>
+      <c r="F291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>20250107</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>90</v>
+      </c>
+      <c r="E292">
+        <v>3.88</v>
+      </c>
+      <c r="F292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>20250107</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>91</v>
+      </c>
+      <c r="E293">
+        <v>4.95</v>
+      </c>
+      <c r="F293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>20250107</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>92</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>20250107</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>93</v>
+      </c>
+      <c r="E295">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>20250107</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>94</v>
+      </c>
+      <c r="E296">
+        <v>5.42</v>
+      </c>
+      <c r="F296" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>20250107</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>95</v>
+      </c>
+      <c r="E297">
+        <v>5.26</v>
+      </c>
+      <c r="F297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>20250107</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>96</v>
+      </c>
+      <c r="E298">
+        <v>5.42</v>
+      </c>
+      <c r="F298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>20250107</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>97</v>
+      </c>
+      <c r="E299">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>20250107</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>98</v>
+      </c>
+      <c r="E300">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>20250107</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>99</v>
+      </c>
+      <c r="E301">
+        <v>4.93</v>
+      </c>
+      <c r="F301" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>20250107</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>100</v>
+      </c>
+      <c r="E302">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F302" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6873D-D5C1-CF4E-883E-DCB76A423C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33370C-E0FF-4F42-A5C0-881370C07299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33370C-E0FF-4F42-A5C0-881370C07299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C567C5-2040-8E46-8D0D-3388A6A01ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="13">
   <si>
     <t>control</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">20250107_control1_size.jpeg </t>
+  </si>
+  <si>
+    <t>20250107_control2_size.jpeg</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="F302" sqref="F302"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="J397" sqref="J397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6499,6 +6502,2006 @@
         <v>11</v>
       </c>
     </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>20250107</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>20250107</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>3.9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>20250107</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+      <c r="E305">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F305" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>20250107</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>4</v>
+      </c>
+      <c r="E306">
+        <v>4.07</v>
+      </c>
+      <c r="F306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>20250107</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>5</v>
+      </c>
+      <c r="E307">
+        <v>3.63</v>
+      </c>
+      <c r="F307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>20250107</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>6</v>
+      </c>
+      <c r="E308">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F308" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>20250107</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>7</v>
+      </c>
+      <c r="E309">
+        <v>4.57</v>
+      </c>
+      <c r="F309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>20250107</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>8</v>
+      </c>
+      <c r="E310">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>20250107</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>9</v>
+      </c>
+      <c r="E311">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F311" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>20250107</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>10</v>
+      </c>
+      <c r="E312">
+        <v>3.84</v>
+      </c>
+      <c r="F312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>20250107</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>11</v>
+      </c>
+      <c r="E313">
+        <v>5.31</v>
+      </c>
+      <c r="F313" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>20250107</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>12</v>
+      </c>
+      <c r="E314">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>20250107</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>13</v>
+      </c>
+      <c r="E315">
+        <v>4.88</v>
+      </c>
+      <c r="F315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>20250107</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>14</v>
+      </c>
+      <c r="E316">
+        <v>5.31</v>
+      </c>
+      <c r="F316" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>20250107</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>15</v>
+      </c>
+      <c r="E317">
+        <v>5.25</v>
+      </c>
+      <c r="F317" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>20250107</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>16</v>
+      </c>
+      <c r="E318">
+        <v>4.58</v>
+      </c>
+      <c r="F318" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>20250107</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>17</v>
+      </c>
+      <c r="E319">
+        <v>4.71</v>
+      </c>
+      <c r="F319" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>20250107</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>18</v>
+      </c>
+      <c r="E320">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F320" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>20250107</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>19</v>
+      </c>
+      <c r="E321">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>20250107</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>20</v>
+      </c>
+      <c r="E322">
+        <v>4.12</v>
+      </c>
+      <c r="F322" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>20250107</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>21</v>
+      </c>
+      <c r="E323">
+        <v>4.82</v>
+      </c>
+      <c r="F323" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>20250107</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>22</v>
+      </c>
+      <c r="E324">
+        <v>4.46</v>
+      </c>
+      <c r="F324" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>20250107</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>23</v>
+      </c>
+      <c r="E325">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F325" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>20250107</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>24</v>
+      </c>
+      <c r="E326">
+        <v>6.76</v>
+      </c>
+      <c r="F326" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>20250107</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="s">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>25</v>
+      </c>
+      <c r="E327">
+        <v>4.28</v>
+      </c>
+      <c r="F327" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>20250107</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>26</v>
+      </c>
+      <c r="E328">
+        <v>3.32</v>
+      </c>
+      <c r="F328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>20250107</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>27</v>
+      </c>
+      <c r="E329">
+        <v>3.7</v>
+      </c>
+      <c r="F329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>20250107</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>28</v>
+      </c>
+      <c r="E330">
+        <v>4.74</v>
+      </c>
+      <c r="F330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>20250107</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>29</v>
+      </c>
+      <c r="E331">
+        <v>5.57</v>
+      </c>
+      <c r="F331" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>20250107</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>30</v>
+      </c>
+      <c r="E332">
+        <v>3.71</v>
+      </c>
+      <c r="F332" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>20250107</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>31</v>
+      </c>
+      <c r="E333">
+        <v>5.46</v>
+      </c>
+      <c r="F333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>20250107</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>32</v>
+      </c>
+      <c r="E334">
+        <v>5.66</v>
+      </c>
+      <c r="F334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>20250107</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>33</v>
+      </c>
+      <c r="E335">
+        <v>4.51</v>
+      </c>
+      <c r="F335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>20250107</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>34</v>
+      </c>
+      <c r="E336">
+        <v>4.2</v>
+      </c>
+      <c r="F336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>20250107</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>35</v>
+      </c>
+      <c r="E337">
+        <v>4.18</v>
+      </c>
+      <c r="F337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>20250107</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>36</v>
+      </c>
+      <c r="E338">
+        <v>4.37</v>
+      </c>
+      <c r="F338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>20250107</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>37</v>
+      </c>
+      <c r="E339">
+        <v>4.7</v>
+      </c>
+      <c r="F339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>20250107</v>
+      </c>
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>38</v>
+      </c>
+      <c r="E340">
+        <v>5.09</v>
+      </c>
+      <c r="F340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>20250107</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>39</v>
+      </c>
+      <c r="E341">
+        <v>4.96</v>
+      </c>
+      <c r="F341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>20250107</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>40</v>
+      </c>
+      <c r="E342">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>20250107</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>41</v>
+      </c>
+      <c r="E343">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>20250107</v>
+      </c>
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" t="s">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>42</v>
+      </c>
+      <c r="E344">
+        <v>4.37</v>
+      </c>
+      <c r="F344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>20250107</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>43</v>
+      </c>
+      <c r="E345">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F345" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>20250107</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>44</v>
+      </c>
+      <c r="E346">
+        <v>5.24</v>
+      </c>
+      <c r="F346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>20250107</v>
+      </c>
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>45</v>
+      </c>
+      <c r="E347">
+        <v>6.1</v>
+      </c>
+      <c r="F347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>20250107</v>
+      </c>
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>46</v>
+      </c>
+      <c r="E348">
+        <v>4.33</v>
+      </c>
+      <c r="F348" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>20250107</v>
+      </c>
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>47</v>
+      </c>
+      <c r="E349">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F349" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>20250107</v>
+      </c>
+      <c r="B350" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>48</v>
+      </c>
+      <c r="E350">
+        <v>5.21</v>
+      </c>
+      <c r="F350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>20250107</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>49</v>
+      </c>
+      <c r="E351">
+        <v>4.57</v>
+      </c>
+      <c r="F351" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>20250107</v>
+      </c>
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>50</v>
+      </c>
+      <c r="E352">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F352" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>20250107</v>
+      </c>
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353" t="s">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>51</v>
+      </c>
+      <c r="E353">
+        <v>5.45</v>
+      </c>
+      <c r="F353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>20250107</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>52</v>
+      </c>
+      <c r="E354">
+        <v>5.38</v>
+      </c>
+      <c r="F354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>20250107</v>
+      </c>
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355" t="s">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>53</v>
+      </c>
+      <c r="E355">
+        <v>5.48</v>
+      </c>
+      <c r="F355" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>20250107</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>54</v>
+      </c>
+      <c r="E356">
+        <v>4.92</v>
+      </c>
+      <c r="F356" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>20250107</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>55</v>
+      </c>
+      <c r="E357">
+        <v>5.08</v>
+      </c>
+      <c r="F357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>20250107</v>
+      </c>
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>56</v>
+      </c>
+      <c r="E358">
+        <v>4.75</v>
+      </c>
+      <c r="F358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>20250107</v>
+      </c>
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>57</v>
+      </c>
+      <c r="E359">
+        <v>5.58</v>
+      </c>
+      <c r="F359" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>20250107</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>58</v>
+      </c>
+      <c r="E360">
+        <v>4.92</v>
+      </c>
+      <c r="F360" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>20250107</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>59</v>
+      </c>
+      <c r="E361">
+        <v>5.32</v>
+      </c>
+      <c r="F361" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>20250107</v>
+      </c>
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>60</v>
+      </c>
+      <c r="E362">
+        <v>4.49</v>
+      </c>
+      <c r="F362" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>20250107</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>61</v>
+      </c>
+      <c r="E363">
+        <v>5.2</v>
+      </c>
+      <c r="F363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>20250107</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>62</v>
+      </c>
+      <c r="E364">
+        <v>5.24</v>
+      </c>
+      <c r="F364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>20250107</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>63</v>
+      </c>
+      <c r="E365">
+        <v>4.96</v>
+      </c>
+      <c r="F365" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>20250107</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>64</v>
+      </c>
+      <c r="E366">
+        <v>5.04</v>
+      </c>
+      <c r="F366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>20250107</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>65</v>
+      </c>
+      <c r="E367">
+        <v>3.37</v>
+      </c>
+      <c r="F367" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>20250107</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>66</v>
+      </c>
+      <c r="E368">
+        <v>5.51</v>
+      </c>
+      <c r="F368" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>20250107</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>67</v>
+      </c>
+      <c r="E369">
+        <v>5.6</v>
+      </c>
+      <c r="F369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>20250107</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>68</v>
+      </c>
+      <c r="E370">
+        <v>5.33</v>
+      </c>
+      <c r="F370" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>20250107</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>69</v>
+      </c>
+      <c r="E371">
+        <v>4.58</v>
+      </c>
+      <c r="F371" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>20250107</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>70</v>
+      </c>
+      <c r="E372">
+        <v>4.09</v>
+      </c>
+      <c r="F372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>20250107</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>71</v>
+      </c>
+      <c r="E373">
+        <v>4.59</v>
+      </c>
+      <c r="F373" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>20250107</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>72</v>
+      </c>
+      <c r="E374">
+        <v>4.72</v>
+      </c>
+      <c r="F374" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>20250107</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>73</v>
+      </c>
+      <c r="E375">
+        <v>5.47</v>
+      </c>
+      <c r="F375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>20250107</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>74</v>
+      </c>
+      <c r="E376">
+        <v>5.24</v>
+      </c>
+      <c r="F376" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>20250107</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>75</v>
+      </c>
+      <c r="E377">
+        <v>6.57</v>
+      </c>
+      <c r="F377" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>20250107</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>76</v>
+      </c>
+      <c r="E378">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>20250107</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>77</v>
+      </c>
+      <c r="E379">
+        <v>4.34</v>
+      </c>
+      <c r="F379" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>20250107</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>78</v>
+      </c>
+      <c r="E380">
+        <v>4.46</v>
+      </c>
+      <c r="F380" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>20250107</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>79</v>
+      </c>
+      <c r="E381">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F381" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>20250107</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>80</v>
+      </c>
+      <c r="E382">
+        <v>4.49</v>
+      </c>
+      <c r="F382" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>20250107</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>81</v>
+      </c>
+      <c r="E383">
+        <v>4.57</v>
+      </c>
+      <c r="F383" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>20250107</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>82</v>
+      </c>
+      <c r="E384">
+        <v>5.3</v>
+      </c>
+      <c r="F384" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>20250107</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>83</v>
+      </c>
+      <c r="E385">
+        <v>4.07</v>
+      </c>
+      <c r="F385" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>20250107</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>84</v>
+      </c>
+      <c r="E386">
+        <v>5.25</v>
+      </c>
+      <c r="F386" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>20250107</v>
+      </c>
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" t="s">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>85</v>
+      </c>
+      <c r="E387">
+        <v>4.95</v>
+      </c>
+      <c r="F387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>20250107</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" t="s">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>86</v>
+      </c>
+      <c r="E388">
+        <v>5.56</v>
+      </c>
+      <c r="F388" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>20250107</v>
+      </c>
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" t="s">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>87</v>
+      </c>
+      <c r="E389">
+        <v>5.94</v>
+      </c>
+      <c r="F389" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>20250107</v>
+      </c>
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" t="s">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>88</v>
+      </c>
+      <c r="E390">
+        <v>5.57</v>
+      </c>
+      <c r="F390" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>20250107</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" t="s">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>89</v>
+      </c>
+      <c r="E391">
+        <v>4.58</v>
+      </c>
+      <c r="F391" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>20250107</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" t="s">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>90</v>
+      </c>
+      <c r="E392">
+        <v>3.77</v>
+      </c>
+      <c r="F392" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>20250107</v>
+      </c>
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" t="s">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>91</v>
+      </c>
+      <c r="E393">
+        <v>5.12</v>
+      </c>
+      <c r="F393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>20250107</v>
+      </c>
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" t="s">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>92</v>
+      </c>
+      <c r="E394">
+        <v>6.37</v>
+      </c>
+      <c r="F394" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>20250107</v>
+      </c>
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" t="s">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>93</v>
+      </c>
+      <c r="E395">
+        <v>4.54</v>
+      </c>
+      <c r="F395" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>20250107</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="s">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>94</v>
+      </c>
+      <c r="E396">
+        <v>5.68</v>
+      </c>
+      <c r="F396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>20250107</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="s">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>95</v>
+      </c>
+      <c r="E397">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F397" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>20250107</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" t="s">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>96</v>
+      </c>
+      <c r="E398">
+        <v>5.18</v>
+      </c>
+      <c r="F398" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>20250107</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" t="s">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>97</v>
+      </c>
+      <c r="E399">
+        <v>3.95</v>
+      </c>
+      <c r="F399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>20250107</v>
+      </c>
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" t="s">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>98</v>
+      </c>
+      <c r="E400">
+        <v>5.94</v>
+      </c>
+      <c r="F400" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>20250107</v>
+      </c>
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>99</v>
+      </c>
+      <c r="E401">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F401" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>20250107</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" t="s">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>100</v>
+      </c>
+      <c r="E402">
+        <v>5.19</v>
+      </c>
+      <c r="F402" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9635CB3-1303-A34D-8501-ED2B139DE70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A14A9-1139-6A4B-A82C-648DE1334591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A14A9-1139-6A4B-A82C-648DE1334591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352B040-331D-A545-8356-2CD49D005E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="12100" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I972" sqref="I972"/>
+    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="E861" sqref="E861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17711,7 +17711,7 @@
         <v>59</v>
       </c>
       <c r="E861">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="F861" t="s">
         <v>19</v>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352B040-331D-A545-8356-2CD49D005E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99263076-505D-354E-AED1-696B3FD83F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="23">
   <si>
     <t>control</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>20250206_treated5_size.jpeg</t>
+  </si>
+  <si>
+    <t>control_20250530.jpeg</t>
+  </si>
+  <si>
+    <t>treated_20250530.jpeg</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
-      <selection activeCell="E861" sqref="E861"/>
+    <sheetView tabSelected="1" topLeftCell="A1174" workbookViewId="0">
+      <selection activeCell="E1206" sqref="E1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20537,6 +20543,4006 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>20250530</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1003">
+        <v>1</v>
+      </c>
+      <c r="E1003">
+        <v>11.17</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>20250530</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1004">
+        <v>2</v>
+      </c>
+      <c r="E1004">
+        <v>7.39</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>20250530</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1005">
+        <v>3</v>
+      </c>
+      <c r="E1005">
+        <v>7.91</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>20250530</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1006">
+        <v>4</v>
+      </c>
+      <c r="E1006">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>20250530</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1007">
+        <v>5</v>
+      </c>
+      <c r="E1007">
+        <v>9.34</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>20250530</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1008">
+        <v>6</v>
+      </c>
+      <c r="E1008">
+        <v>10.56</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>20250530</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1009">
+        <v>7</v>
+      </c>
+      <c r="E1009">
+        <v>9.43</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>20250530</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1010">
+        <v>8</v>
+      </c>
+      <c r="E1010">
+        <v>8.75</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>20250530</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1011">
+        <v>9</v>
+      </c>
+      <c r="E1011">
+        <v>7.82</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>20250530</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1012">
+        <v>10</v>
+      </c>
+      <c r="E1012">
+        <v>9.08</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>20250530</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1013">
+        <v>11</v>
+      </c>
+      <c r="E1013">
+        <v>7.72</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>20250530</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1014">
+        <v>12</v>
+      </c>
+      <c r="E1014">
+        <v>7.55</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>20250530</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1015">
+        <v>13</v>
+      </c>
+      <c r="E1015">
+        <v>10.17</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>20250530</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1016">
+        <v>14</v>
+      </c>
+      <c r="E1016">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>20250530</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1017">
+        <v>15</v>
+      </c>
+      <c r="E1017">
+        <v>10.44</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>20250530</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1018">
+        <v>16</v>
+      </c>
+      <c r="E1018">
+        <v>6.54</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>20250530</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1019">
+        <v>17</v>
+      </c>
+      <c r="E1019">
+        <v>10.93</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>20250530</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1020">
+        <v>18</v>
+      </c>
+      <c r="E1020">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>20250530</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1021">
+        <v>19</v>
+      </c>
+      <c r="E1021">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>20250530</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1022">
+        <v>20</v>
+      </c>
+      <c r="E1022">
+        <v>8.06</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>20250530</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1023">
+        <v>21</v>
+      </c>
+      <c r="E1023">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>20250530</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1024">
+        <v>22</v>
+      </c>
+      <c r="E1024">
+        <v>5.45</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>20250530</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1025">
+        <v>23</v>
+      </c>
+      <c r="E1025">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>20250530</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1026">
+        <v>24</v>
+      </c>
+      <c r="E1026">
+        <v>7.87</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>20250530</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1027">
+        <v>25</v>
+      </c>
+      <c r="E1027">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>20250530</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1028">
+        <v>26</v>
+      </c>
+      <c r="E1028">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>20250530</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1029">
+        <v>27</v>
+      </c>
+      <c r="E1029">
+        <v>7.5</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>20250530</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1030">
+        <v>28</v>
+      </c>
+      <c r="E1030">
+        <v>7.8</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>20250530</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1031">
+        <v>29</v>
+      </c>
+      <c r="E1031">
+        <v>7.86</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>20250530</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1032">
+        <v>30</v>
+      </c>
+      <c r="E1032">
+        <v>9.08</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>20250530</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1033">
+        <v>31</v>
+      </c>
+      <c r="E1033">
+        <v>12.55</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>20250530</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1034">
+        <v>32</v>
+      </c>
+      <c r="E1034">
+        <v>9.18</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>20250530</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1035">
+        <v>33</v>
+      </c>
+      <c r="E1035">
+        <v>8.06</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>20250530</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1036">
+        <v>34</v>
+      </c>
+      <c r="E1036">
+        <v>11.04</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>20250530</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1037">
+        <v>35</v>
+      </c>
+      <c r="E1037">
+        <v>8.1</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>20250530</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1038">
+        <v>36</v>
+      </c>
+      <c r="E1038">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>20250530</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1039">
+        <v>37</v>
+      </c>
+      <c r="E1039">
+        <v>11.15</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>20250530</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1040">
+        <v>38</v>
+      </c>
+      <c r="E1040">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>20250530</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1041">
+        <v>39</v>
+      </c>
+      <c r="E1041">
+        <v>12.14</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>20250530</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1042">
+        <v>40</v>
+      </c>
+      <c r="E1042">
+        <v>6.66</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>20250530</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1043">
+        <v>41</v>
+      </c>
+      <c r="E1043">
+        <v>9.08</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>20250530</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1044">
+        <v>42</v>
+      </c>
+      <c r="E1044">
+        <v>10.48</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>20250530</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1045">
+        <v>43</v>
+      </c>
+      <c r="E1045">
+        <v>8.06</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>20250530</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1046">
+        <v>44</v>
+      </c>
+      <c r="E1046">
+        <v>9.5</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>20250530</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1047">
+        <v>45</v>
+      </c>
+      <c r="E1047">
+        <v>7.82</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>20250530</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1048">
+        <v>46</v>
+      </c>
+      <c r="E1048">
+        <v>7.64</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>20250530</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1049">
+        <v>47</v>
+      </c>
+      <c r="E1049">
+        <v>10.15</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>20250530</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1050">
+        <v>48</v>
+      </c>
+      <c r="E1050">
+        <v>6.67</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>20250530</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1051">
+        <v>49</v>
+      </c>
+      <c r="E1051">
+        <v>12.3</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>20250530</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1052">
+        <v>50</v>
+      </c>
+      <c r="E1052">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>20250530</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1053">
+        <v>51</v>
+      </c>
+      <c r="E1053">
+        <v>8.11</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>20250530</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1054">
+        <v>52</v>
+      </c>
+      <c r="E1054">
+        <v>11.55</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>20250530</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1055">
+        <v>53</v>
+      </c>
+      <c r="E1055">
+        <v>11.74</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>20250530</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1056">
+        <v>54</v>
+      </c>
+      <c r="E1056">
+        <v>10.42</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>20250530</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1057">
+        <v>55</v>
+      </c>
+      <c r="E1057">
+        <v>8.68</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>20250530</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1058">
+        <v>56</v>
+      </c>
+      <c r="E1058">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>20250530</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1059">
+        <v>57</v>
+      </c>
+      <c r="E1059">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>20250530</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1060">
+        <v>58</v>
+      </c>
+      <c r="E1060">
+        <v>7.53</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>20250530</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1061">
+        <v>59</v>
+      </c>
+      <c r="E1061">
+        <v>10.19</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>20250530</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1062">
+        <v>60</v>
+      </c>
+      <c r="E1062">
+        <v>8.6</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>20250530</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1063">
+        <v>61</v>
+      </c>
+      <c r="E1063">
+        <v>8.98</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>20250530</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1064">
+        <v>62</v>
+      </c>
+      <c r="E1064">
+        <v>7.5</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>20250530</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1065">
+        <v>63</v>
+      </c>
+      <c r="E1065">
+        <v>10.34</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>20250530</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1066">
+        <v>64</v>
+      </c>
+      <c r="E1066">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>20250530</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1067">
+        <v>65</v>
+      </c>
+      <c r="E1067">
+        <v>8.01</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>20250530</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1068">
+        <v>66</v>
+      </c>
+      <c r="E1068">
+        <v>10.32</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>20250530</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1069">
+        <v>67</v>
+      </c>
+      <c r="E1069">
+        <v>10.46</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>20250530</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1070">
+        <v>68</v>
+      </c>
+      <c r="E1070">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>20250530</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1071">
+        <v>69</v>
+      </c>
+      <c r="E1071">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>20250530</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1072">
+        <v>70</v>
+      </c>
+      <c r="E1072">
+        <v>8.85</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>20250530</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1073">
+        <v>71</v>
+      </c>
+      <c r="E1073">
+        <v>10.32</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>20250530</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1074">
+        <v>72</v>
+      </c>
+      <c r="E1074">
+        <v>7.7</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>20250530</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1075">
+        <v>73</v>
+      </c>
+      <c r="E1075">
+        <v>11</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>20250530</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1076">
+        <v>74</v>
+      </c>
+      <c r="E1076">
+        <v>8.33</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>20250530</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1077">
+        <v>75</v>
+      </c>
+      <c r="E1077">
+        <v>6.45</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>20250530</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1078">
+        <v>76</v>
+      </c>
+      <c r="E1078">
+        <v>9.56</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>20250530</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1079">
+        <v>77</v>
+      </c>
+      <c r="E1079">
+        <v>8.58</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>20250530</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1080">
+        <v>78</v>
+      </c>
+      <c r="E1080">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>20250530</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1081">
+        <v>79</v>
+      </c>
+      <c r="E1081">
+        <v>9.09</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>20250530</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1082">
+        <v>80</v>
+      </c>
+      <c r="E1082">
+        <v>9.82</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>20250530</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1083">
+        <v>81</v>
+      </c>
+      <c r="E1083">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>20250530</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1084">
+        <v>82</v>
+      </c>
+      <c r="E1084">
+        <v>10.82</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>20250530</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1085">
+        <v>83</v>
+      </c>
+      <c r="E1085">
+        <v>8.5</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>20250530</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1086">
+        <v>84</v>
+      </c>
+      <c r="E1086">
+        <v>7.18</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>20250530</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1087">
+        <v>85</v>
+      </c>
+      <c r="E1087">
+        <v>11.79</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>20250530</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1088">
+        <v>86</v>
+      </c>
+      <c r="E1088">
+        <v>8.34</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>20250530</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1089">
+        <v>87</v>
+      </c>
+      <c r="E1089">
+        <v>8.92</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>20250530</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1090">
+        <v>88</v>
+      </c>
+      <c r="E1090">
+        <v>9.7360000000000007</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>20250530</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1091">
+        <v>89</v>
+      </c>
+      <c r="E1091">
+        <v>9.4469999999999992</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>20250530</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1092">
+        <v>90</v>
+      </c>
+      <c r="E1092">
+        <v>7.02</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>20250530</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1093">
+        <v>91</v>
+      </c>
+      <c r="E1093">
+        <v>11.44</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>20250530</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1094">
+        <v>92</v>
+      </c>
+      <c r="E1094">
+        <v>9.94</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>20250530</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1095">
+        <v>93</v>
+      </c>
+      <c r="E1095">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>20250530</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1096">
+        <v>94</v>
+      </c>
+      <c r="E1096">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>20250530</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1097">
+        <v>95</v>
+      </c>
+      <c r="E1097">
+        <v>10.76</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>20250530</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1098">
+        <v>96</v>
+      </c>
+      <c r="E1098">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>20250530</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1099">
+        <v>97</v>
+      </c>
+      <c r="E1099">
+        <v>8.89</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>20250530</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1100">
+        <v>98</v>
+      </c>
+      <c r="E1100">
+        <v>10.25</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>20250530</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1101">
+        <v>99</v>
+      </c>
+      <c r="E1101">
+        <v>9.81</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>20250530</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1102">
+        <v>100</v>
+      </c>
+      <c r="E1102">
+        <v>7.91</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>20250530</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1103">
+        <v>1</v>
+      </c>
+      <c r="E1103">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>20250530</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1104">
+        <v>2</v>
+      </c>
+      <c r="E1104">
+        <v>11.45</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>20250530</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1105">
+        <v>3</v>
+      </c>
+      <c r="E1105">
+        <v>11.63</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>20250530</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1106">
+        <v>4</v>
+      </c>
+      <c r="E1106">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>20250530</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1107">
+        <v>5</v>
+      </c>
+      <c r="E1107">
+        <v>9.86</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>20250530</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1108">
+        <v>6</v>
+      </c>
+      <c r="E1108">
+        <v>8.48</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>20250530</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1109">
+        <v>7</v>
+      </c>
+      <c r="E1109">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>20250530</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1110">
+        <v>8</v>
+      </c>
+      <c r="E1110">
+        <v>7.74</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>20250530</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1111">
+        <v>9</v>
+      </c>
+      <c r="E1111">
+        <v>11.23</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>20250530</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1112">
+        <v>10</v>
+      </c>
+      <c r="E1112">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>20250530</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1113">
+        <v>11</v>
+      </c>
+      <c r="E1113">
+        <v>9.48</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>20250530</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1114">
+        <v>12</v>
+      </c>
+      <c r="E1114">
+        <v>9.48</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>20250530</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1115">
+        <v>13</v>
+      </c>
+      <c r="E1115">
+        <v>7.59</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>20250530</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1116">
+        <v>14</v>
+      </c>
+      <c r="E1116">
+        <v>9.94</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>20250530</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1117">
+        <v>15</v>
+      </c>
+      <c r="E1117">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>20250530</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1118">
+        <v>16</v>
+      </c>
+      <c r="E1118">
+        <v>10.02</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>20250530</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1119">
+        <v>17</v>
+      </c>
+      <c r="E1119">
+        <v>7.41</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>20250530</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1120">
+        <v>18</v>
+      </c>
+      <c r="E1120">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>20250530</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1121">
+        <v>19</v>
+      </c>
+      <c r="E1121">
+        <v>11.87</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>20250530</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1122">
+        <v>20</v>
+      </c>
+      <c r="E1122">
+        <v>8.34</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>20250530</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1123">
+        <v>21</v>
+      </c>
+      <c r="E1123">
+        <v>8.86</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>20250530</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1124">
+        <v>22</v>
+      </c>
+      <c r="E1124">
+        <v>11.2</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>20250530</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1125">
+        <v>23</v>
+      </c>
+      <c r="E1125">
+        <v>9.83</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>20250530</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1126">
+        <v>24</v>
+      </c>
+      <c r="E1126">
+        <v>10.91</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>20250530</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1127">
+        <v>25</v>
+      </c>
+      <c r="E1127">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>20250530</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1128">
+        <v>26</v>
+      </c>
+      <c r="E1128">
+        <v>7.59</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>20250530</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1129">
+        <v>27</v>
+      </c>
+      <c r="E1129">
+        <v>7.93</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>20250530</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1130">
+        <v>28</v>
+      </c>
+      <c r="E1130">
+        <v>9.07</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>20250530</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1131">
+        <v>29</v>
+      </c>
+      <c r="E1131">
+        <v>9.92</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>20250530</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1132">
+        <v>30</v>
+      </c>
+      <c r="E1132">
+        <v>9.31</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>20250530</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1133">
+        <v>31</v>
+      </c>
+      <c r="E1133">
+        <v>8.34</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>20250530</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1134">
+        <v>32</v>
+      </c>
+      <c r="E1134">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>20250530</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1135">
+        <v>33</v>
+      </c>
+      <c r="E1135">
+        <v>11.02</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>20250530</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1136">
+        <v>34</v>
+      </c>
+      <c r="E1136">
+        <v>10.82</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>20250530</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1137">
+        <v>35</v>
+      </c>
+      <c r="E1137">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>20250530</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1138">
+        <v>36</v>
+      </c>
+      <c r="E1138">
+        <v>7.03</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>20250530</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1139">
+        <v>37</v>
+      </c>
+      <c r="E1139">
+        <v>12.86</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>20250530</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1140">
+        <v>38</v>
+      </c>
+      <c r="E1140">
+        <v>10.45</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>20250530</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1141">
+        <v>39</v>
+      </c>
+      <c r="E1141">
+        <v>10.85</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>20250530</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1142">
+        <v>40</v>
+      </c>
+      <c r="E1142">
+        <v>10.71</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>20250530</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1143">
+        <v>41</v>
+      </c>
+      <c r="E1143">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>20250530</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1144">
+        <v>42</v>
+      </c>
+      <c r="E1144">
+        <v>9.66</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>20250530</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1145">
+        <v>43</v>
+      </c>
+      <c r="E1145">
+        <v>13.66</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>20250530</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1146">
+        <v>44</v>
+      </c>
+      <c r="E1146">
+        <v>8.1</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>20250530</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1147">
+        <v>45</v>
+      </c>
+      <c r="E1147">
+        <v>9.4</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>20250530</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1148">
+        <v>46</v>
+      </c>
+      <c r="E1148">
+        <v>7.74</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>20250530</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1149">
+        <v>47</v>
+      </c>
+      <c r="E1149">
+        <v>11.01</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>20250530</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1150">
+        <v>48</v>
+      </c>
+      <c r="E1150">
+        <v>12.89</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>20250530</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1151">
+        <v>49</v>
+      </c>
+      <c r="E1151">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>20250530</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1152">
+        <v>50</v>
+      </c>
+      <c r="E1152">
+        <v>9.42</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>20250530</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1153">
+        <v>51</v>
+      </c>
+      <c r="E1153">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>20250530</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1154">
+        <v>52</v>
+      </c>
+      <c r="E1154">
+        <v>10</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>20250530</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1155">
+        <v>53</v>
+      </c>
+      <c r="E1155">
+        <v>11.62</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>20250530</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1156">
+        <v>54</v>
+      </c>
+      <c r="E1156">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>20250530</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1157">
+        <v>55</v>
+      </c>
+      <c r="E1157">
+        <v>12.49</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>20250530</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1158">
+        <v>56</v>
+      </c>
+      <c r="E1158">
+        <v>12.26</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>20250530</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1159">
+        <v>57</v>
+      </c>
+      <c r="E1159">
+        <v>10.71</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>20250530</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1160">
+        <v>58</v>
+      </c>
+      <c r="E1160">
+        <v>8.42</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>20250530</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1161">
+        <v>59</v>
+      </c>
+      <c r="E1161">
+        <v>8.49</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>20250530</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1162">
+        <v>60</v>
+      </c>
+      <c r="E1162">
+        <v>9.27</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>20250530</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1163">
+        <v>61</v>
+      </c>
+      <c r="E1163">
+        <v>8.58</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>20250530</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1164">
+        <v>62</v>
+      </c>
+      <c r="E1164">
+        <v>11.63</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>20250530</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1165">
+        <v>63</v>
+      </c>
+      <c r="E1165">
+        <v>10</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>20250530</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1166">
+        <v>64</v>
+      </c>
+      <c r="E1166">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>20250530</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1167">
+        <v>65</v>
+      </c>
+      <c r="E1167">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>20250530</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1168">
+        <v>66</v>
+      </c>
+      <c r="E1168">
+        <v>9.82</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>20250530</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1169">
+        <v>67</v>
+      </c>
+      <c r="E1169">
+        <v>8.74</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>20250530</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1170">
+        <v>68</v>
+      </c>
+      <c r="E1170">
+        <v>9.15</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>20250530</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1171">
+        <v>69</v>
+      </c>
+      <c r="E1171">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>20250530</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1172">
+        <v>70</v>
+      </c>
+      <c r="E1172">
+        <v>11.3</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>20250530</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1173">
+        <v>71</v>
+      </c>
+      <c r="E1173">
+        <v>10.82</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>20250530</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1174">
+        <v>72</v>
+      </c>
+      <c r="E1174">
+        <v>6.66</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>20250530</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1175">
+        <v>73</v>
+      </c>
+      <c r="E1175">
+        <v>6.66</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>20250530</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1176">
+        <v>74</v>
+      </c>
+      <c r="E1176">
+        <v>8.9</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>20250530</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1177">
+        <v>75</v>
+      </c>
+      <c r="E1177">
+        <v>10.52</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>20250530</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1178">
+        <v>76</v>
+      </c>
+      <c r="E1178">
+        <v>10.17</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>20250530</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1179">
+        <v>77</v>
+      </c>
+      <c r="E1179">
+        <v>12.74</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>20250530</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1180">
+        <v>78</v>
+      </c>
+      <c r="E1180">
+        <v>9.31</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>20250530</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1181">
+        <v>79</v>
+      </c>
+      <c r="E1181">
+        <v>9.1</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>20250530</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1182">
+        <v>80</v>
+      </c>
+      <c r="E1182">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>20250530</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1183">
+        <v>81</v>
+      </c>
+      <c r="E1183">
+        <v>7.57</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>20250530</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1184">
+        <v>82</v>
+      </c>
+      <c r="E1184">
+        <v>10.17</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>20250530</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1185">
+        <v>83</v>
+      </c>
+      <c r="E1185">
+        <v>13.64</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>20250530</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1186">
+        <v>84</v>
+      </c>
+      <c r="E1186">
+        <v>11.67</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>20250530</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1187">
+        <v>85</v>
+      </c>
+      <c r="E1187">
+        <v>8.49</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>20250530</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1188">
+        <v>86</v>
+      </c>
+      <c r="E1188">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>20250530</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1189">
+        <v>87</v>
+      </c>
+      <c r="E1189">
+        <v>11.1</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>20250530</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1190">
+        <v>88</v>
+      </c>
+      <c r="E1190">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>20250530</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1191">
+        <v>89</v>
+      </c>
+      <c r="E1191">
+        <v>10.07</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>20250530</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1192">
+        <v>90</v>
+      </c>
+      <c r="E1192">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>20250530</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1193">
+        <v>91</v>
+      </c>
+      <c r="E1193">
+        <v>6.94</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>20250530</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1194">
+        <v>92</v>
+      </c>
+      <c r="E1194">
+        <v>11.8</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>20250530</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1195">
+        <v>93</v>
+      </c>
+      <c r="E1195">
+        <v>10.53</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>20250530</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1196">
+        <v>94</v>
+      </c>
+      <c r="E1196">
+        <v>11.37</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>20250530</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1197">
+        <v>95</v>
+      </c>
+      <c r="E1197">
+        <v>12.61</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>20250530</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1198">
+        <v>96</v>
+      </c>
+      <c r="E1198">
+        <v>11.79</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>20250530</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1199">
+        <v>97</v>
+      </c>
+      <c r="E1199">
+        <v>9.33</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>20250530</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1200">
+        <v>98</v>
+      </c>
+      <c r="E1200">
+        <v>9.83</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>20250530</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1201">
+        <v>99</v>
+      </c>
+      <c r="E1201">
+        <v>8.65</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>20250530</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1202">
+        <v>100</v>
+      </c>
+      <c r="E1202">
+        <v>10.44</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/growth/growth.xlsx
+++ b/data/growth/growth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinebaird/Desktop/GitHub/polyIC-larvae/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99263076-505D-354E-AED1-696B3FD83F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7EB2B-9E08-9F4A-9B00-AEDB2C6D4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="17540" windowHeight="15840" xr2:uid="{BA24E048-5078-7B4D-9000-CCF0539A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB36B54-B7B4-0742-A47F-176219A7FAF5}">
   <dimension ref="A1:G1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1174" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
       <selection activeCell="E1206" sqref="E1206"/>
     </sheetView>
   </sheetViews>
